--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>case编号</t>
   </si>
@@ -102,25 +103,16 @@
     <t>状态</t>
   </si>
   <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
+    <t>50e52e2073eef4b0b7d7c7724f6b7f20</t>
   </si>
   <si>
     <t xml:space="preserve"> 注册成功</t>
   </si>
   <si>
-    <t>8c732dec2618af0709c743eeb114be34</t>
-  </si>
-  <si>
-    <t>a882dc2682f740e5475d82db77afe7b7</t>
-  </si>
-  <si>
-    <t>6dfdea827db26abd7c68693f01080bb5</t>
-  </si>
-  <si>
-    <t>511e3e138d2e33c08211f169af6d01de</t>
-  </si>
-  <si>
-    <t>5c7c62e3a680f0dd4ab0d74788e2b776</t>
+    <t>d285f7fc5a4cda42cbb6864fae4b55cb</t>
+  </si>
+  <si>
+    <t>fdc53eef3bdbafb649301897457a8d05</t>
   </si>
 </sst>
 </file>
@@ -144,6 +136,27 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -152,52 +165,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -212,14 +180,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -228,6 +188,53 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -235,7 +242,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -254,37 +277,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,19 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,19 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,139 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +478,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +524,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -566,77 +578,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1100,13 +1092,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="24" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
@@ -1125,10 +1117,55 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>786</v>
+        <v>736139</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="25.875" customWidth="1" min="1" max="1"/>
+    <col width="20.625" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>736243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1136,67 +1173,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>942011</v>
+        <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>147742</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>742039</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>714094</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>597924</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>902650</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>case编号</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>1e347fb302d0c42db49e2077aa46ebf2</t>
+  </si>
+  <si>
+    <t>7afa1728db5fd807a45bf948071e1434</t>
+  </si>
+  <si>
+    <t>3452cd6acb56f919391bf8647230a4cf</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -210,14 +216,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -239,24 +245,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -278,15 +267,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -317,14 +306,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -354,25 +360,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,157 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,17 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +602,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -627,75 +651,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1159,10 +1165,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1443,6 +1449,28 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>231643</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>775942</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1471,7 +1499,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -1485,7 +1513,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1496,7 +1524,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>case编号</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>3452cd6acb56f919391bf8647230a4cf</t>
+  </si>
+  <si>
+    <t>991df91f132f39002edbd350e6bfade9</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1165,7 +1168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -1471,6 +1474,17 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>999847</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1499,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -1513,7 +1527,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1524,7 +1538,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>case编号</t>
   </si>
@@ -185,6 +185,72 @@
   </si>
   <si>
     <t>991df91f132f39002edbd350e6bfade9</t>
+  </si>
+  <si>
+    <t>cbfbaec7b8346e81f238454c1925bd04</t>
+  </si>
+  <si>
+    <t>453eafb823988d18321cc752a7b0bd36</t>
+  </si>
+  <si>
+    <t>d4b84b00221be281bfb5461a5a0ef656</t>
+  </si>
+  <si>
+    <t>2619962d9067daeb42c004d3cd91e39a</t>
+  </si>
+  <si>
+    <t>5406cdfd69483767fdc82e50bd681894</t>
+  </si>
+  <si>
+    <t>d6194ff581a17b33987c940caebf7d51</t>
+  </si>
+  <si>
+    <t>0f9c3706d1350ffc6ed92a5a7d6be4ef</t>
+  </si>
+  <si>
+    <t>9a7bbadb9d29725a32aaf3ea27469f3d</t>
+  </si>
+  <si>
+    <t>e008c31432e32ddc83f49077304cee15</t>
+  </si>
+  <si>
+    <t>fa6ba7af1b65f6f5476f31f194b58ed6</t>
+  </si>
+  <si>
+    <t>d498e627182f0f2679ce7b87fbb07310</t>
+  </si>
+  <si>
+    <t>cd59ea98c514fa105c3721fcaabaa1fd</t>
+  </si>
+  <si>
+    <t>d755993edebd5c38bd05063e79cf2a40</t>
+  </si>
+  <si>
+    <t>ba78e91a7e0b9f9ddf6ffc976cd3076c</t>
+  </si>
+  <si>
+    <t>c57ce14bbf0e3639ce2f4b524c88bfd7</t>
+  </si>
+  <si>
+    <t>9c5cf14181f46c8cda52b0e3cfcb01de</t>
+  </si>
+  <si>
+    <t>208671242d61a2f7f17b317e42b1a313</t>
+  </si>
+  <si>
+    <t>7a740cb325888e5d7b65c41a5870d5c7</t>
+  </si>
+  <si>
+    <t>cdc30f7ca52fd735e2cc99842844d07e</t>
+  </si>
+  <si>
+    <t>a676fa9274e89ee6f2d93999ebaf6c48</t>
+  </si>
+  <si>
+    <t>e145554471c5ae69206495f7e62709ce</t>
+  </si>
+  <si>
+    <t>ff246ec8fb339e230905d7ce47f73404</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1168,7 +1234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -1485,6 +1551,248 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>156911</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>712935</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>253391</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>506130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>492625</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>703302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>889040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>539033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>930012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>260680</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>249371</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>490685</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>919630</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>329847</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>603413</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>395878</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>267463</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>527403</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>731098</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>490286</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>706452</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>48092</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1513,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -1527,7 +1835,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1538,7 +1846,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1545,6 +1545,126 @@
         </is>
       </c>
       <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>124727</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5b65721944aa6a92793024833b0a0bc4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>788804</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>b2245120cf9f0bc41b5c02cf540b1649</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>618675</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>245d6c93670703839c1d9c1b09ab6b81</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>852952</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3a3bbe17ff08d031e3fb66d3f29e9905</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>711852</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9b2c1ba7926e43ba836075d6e3401222</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>251357</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4ea16bea2feafa20c8f3d69cf77d3c00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>773409</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0ecd297b8ffb72128d53a2fe4dd0a707</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>240531</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>b1645f276e4d915149b7311535a05cda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
         </is>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -1,19 +1,357 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="user" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+  <si>
+    <t>case编号</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>依赖key</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>cookie操作</t>
+  </si>
+  <si>
+    <t>header操作</t>
+  </si>
+  <si>
+    <t>预期结果方式</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>智能家居</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>/user/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+ "userAccount":"8002",
+ "userPassword":"e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>登陆成功</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          userAccount                                                             </t>
+  </si>
+  <si>
+    <t>userPassword</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>50e52e2073eef4b0b7d7c7724f6b7f20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 注册成功</t>
+  </si>
+  <si>
+    <t>1c9c01d41797d477ee30bafdc125768a</t>
+  </si>
+  <si>
+    <t>f9c0318cee6da973775db33757ef069f</t>
+  </si>
+  <si>
+    <t>ee143800f8d1af75780c51d4c59c5426</t>
+  </si>
+  <si>
+    <t>78b8bee789db6eaa41842dcba85f9ff7</t>
+  </si>
+  <si>
+    <t>a588a1d852544f4c918eb153932246cf</t>
+  </si>
+  <si>
+    <t>a047a095710f46c941d771898c893eb5</t>
+  </si>
+  <si>
+    <t>f16af151fd2b0d07205c5bf1dba21214</t>
+  </si>
+  <si>
+    <t>899b7c59ce77e992ebf5c856c006d915</t>
+  </si>
+  <si>
+    <t>a8affc7b7a5766077495752392ba46dd</t>
+  </si>
+  <si>
+    <t>c4512986df4ae0cc0dfab52caf833190</t>
+  </si>
+  <si>
+    <t>fcd05787a1552f0e055cb118a21e9275</t>
+  </si>
+  <si>
+    <t>7f85954c51ed3da63a4c600a8871b9ab</t>
+  </si>
+  <si>
+    <t>fc5be44365ee8b511d6f3af17f9b342a</t>
+  </si>
+  <si>
+    <t>ffcc0c98e1e492760480170f7cf41412</t>
+  </si>
+  <si>
+    <t>8dbbf1563ea52b17c5037730dd493d01</t>
+  </si>
+  <si>
+    <t>26975589b27d554601d367a4c78cdffb</t>
+  </si>
+  <si>
+    <t>f5c513fdd5ce92bf019c3e72d03c004f</t>
+  </si>
+  <si>
+    <t>3589caff5c6dbb13f39e813b996af681</t>
+  </si>
+  <si>
+    <t>28cfe9078af97911b6d6c1648cde6163</t>
+  </si>
+  <si>
+    <t>1b66e283bc5594c4253be6decd3ab509</t>
+  </si>
+  <si>
+    <t>54a072b63fddccba3692ea933b9471a2</t>
+  </si>
+  <si>
+    <t>89f9b7896d979f01679ff757391e060b</t>
+  </si>
+  <si>
+    <t>1e347fb302d0c42db49e2077aa46ebf2</t>
+  </si>
+  <si>
+    <t>bf9312371bb405c735f82e178d8b9a14</t>
+  </si>
+  <si>
+    <t>4c865e2b29761f6600cf682d494b2a5d</t>
+  </si>
+  <si>
+    <t>fc988d6e273647b3daf92b684928667c</t>
+  </si>
+  <si>
+    <t>29bce12818b750dc4371525c4268e4da</t>
+  </si>
+  <si>
+    <t>f85ff2215ae2a17a5027de2e0e953a9b</t>
+  </si>
+  <si>
+    <t>fcee6f8dfd000f8cdf478f8a9774ec76</t>
+  </si>
+  <si>
+    <t>fba5afe50b98b170f01c9b6564460130</t>
+  </si>
+  <si>
+    <t>240ae90ef5084283b4b35664352d30c3</t>
+  </si>
+  <si>
+    <t>5b65721944aa6a92793024833b0a0bc4</t>
+  </si>
+  <si>
+    <t>b2245120cf9f0bc41b5c02cf540b1649</t>
+  </si>
+  <si>
+    <t>245d6c93670703839c1d9c1b09ab6b81</t>
+  </si>
+  <si>
+    <t>3a3bbe17ff08d031e3fb66d3f29e9905</t>
+  </si>
+  <si>
+    <t>9b2c1ba7926e43ba836075d6e3401222</t>
+  </si>
+  <si>
+    <t>4ea16bea2feafa20c8f3d69cf77d3c00</t>
+  </si>
+  <si>
+    <t>0ecd297b8ffb72128d53a2fe4dd0a707</t>
+  </si>
+  <si>
+    <t>b1645f276e4d915149b7311535a05cda</t>
+  </si>
+  <si>
+    <t>9187c5e853a8777b1477e7310d14b9f6</t>
+  </si>
+  <si>
+    <t>2a20e6352ef4034d103952b3ad36b9df</t>
+  </si>
+  <si>
+    <t>87c26c40123be3567561b45a2d85f42c</t>
+  </si>
+  <si>
+    <t>13425b8ae2b16af07b5de6c3c545b0d3</t>
+  </si>
+  <si>
+    <t>f9ce308aa50e5c4ded5d38e48e22d11c</t>
+  </si>
+  <si>
+    <t>e7acab9a1b488378d521e4598f705094</t>
+  </si>
+  <si>
+    <t>39563500e1deb7352b8b55863bd74e17</t>
+  </si>
+  <si>
+    <t>0919b111fb09cc2a956bd633e3b90b2f</t>
+  </si>
+  <si>
+    <t>6b58e780cb73ddfd060b090f6cbfb0f5</t>
+  </si>
+  <si>
+    <t>1ef21f2f702b86f8d664b38ba1521fc0</t>
+  </si>
+  <si>
+    <t>44277a9003c558cb0a10dd402cadba90</t>
+  </si>
+  <si>
+    <t>80e78fee7fb1d74afaed23f164969136</t>
+  </si>
+  <si>
+    <t>a069222d8eeee78da8f14190fcf06b88</t>
+  </si>
+  <si>
+    <t>2803caa794a53c698ac789a0290505b7</t>
+  </si>
+  <si>
+    <t>e67719060ca31d8598e297f4d17e5198</t>
+  </si>
+  <si>
+    <t>2aa245eebb2ccc097f6eb18e02fbfb15</t>
+  </si>
+  <si>
+    <t>1debebfaa7b908c7d861381982847a57</t>
+  </si>
+  <si>
+    <t>980b6a9fb5adc7a40b681611c0bb03e3</t>
+  </si>
+  <si>
+    <t>3776b4a92683620956891f95ac28b8b9</t>
+  </si>
+  <si>
+    <t>920896fea2158d5770dc832eaadea88b</t>
+  </si>
+  <si>
+    <t>cd7a40804804a2f9d39d3d42e62a352c</t>
+  </si>
+  <si>
+    <t>425f7ade692c0fe6b30a4bc7d559bb9a</t>
+  </si>
+  <si>
+    <t>b3a5e3b51cee4b428ead9862a7da6d91</t>
+  </si>
+  <si>
+    <t>bfee372ceffce404e055ae895ce239f0</t>
+  </si>
+  <si>
+    <t>04ac9acfe243ccb4b44f59736029826a</t>
+  </si>
+  <si>
+    <t>注册失败,请重新注册</t>
+  </si>
+  <si>
+    <t>7423ddd44cf0799ab0af8899a04b89cd</t>
+  </si>
+  <si>
+    <t>8feed122595a2632a1f7093a8c91187b</t>
+  </si>
+  <si>
+    <t>e109bcaf7b96dcaddc13d401f035d399</t>
+  </si>
+  <si>
+    <t>a1fd45ef1e16d0c7c1b0506fbec41753</t>
+  </si>
+  <si>
+    <t>c607b0c3e69fb04555a554d50be40fda</t>
+  </si>
+  <si>
+    <t>13ff5f9a396babfcf57503b79be3d2c5</t>
+  </si>
+  <si>
+    <t>6cdc95ff6ac8a0203cb483223de5e667</t>
+  </si>
+  <si>
+    <t>2990d656bfbdbd2bf700edf001470bf0</t>
+  </si>
+  <si>
+    <t>10d9390899a4b6cb2a98a322d5ad3a61</t>
+  </si>
+  <si>
+    <t>b54cedd52a6d4e20530e1e47c22f3509</t>
+  </si>
+  <si>
+    <t>3a9ce03c37c8a10ba7016d157cd6204b</t>
+  </si>
+  <si>
+    <t>7dd3c4cca58f67e7d6a76faef25ee957</t>
+  </si>
+  <si>
+    <t>16a7ae461935919b85af78b626287a5f</t>
+  </si>
+  <si>
+    <t>userAccount</t>
+  </si>
+  <si>
+    <t>d285f7fc5a4cda42cbb6864fae4b55cb</t>
+  </si>
+  <si>
+    <t>fdc53eef3bdbafb649301897457a8d05</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,120 +812,120 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="3" fillId="7" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
-    <xf borderId="5" fillId="12" fontId="8" numFmtId="0"/>
-    <xf borderId="1" fillId="12" fontId="6" numFmtId="0"/>
-    <xf borderId="4" fillId="17" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -885,153 +1223,98 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="6" min="6" width="13.125"/>
-    <col customWidth="1" max="8" min="8" width="59.5"/>
-    <col customWidth="1" max="9" min="9" width="33.25"/>
-    <col customWidth="1" max="10" min="10" width="37.625"/>
+    <col width="13.125" customWidth="1" min="6" max="6"/>
+    <col width="59.5" customWidth="1" min="8" max="8"/>
+    <col width="33.25" customWidth="1" min="9" max="9"/>
+    <col width="37.625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>case编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>作用</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>是否执行</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>前置条件</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>依赖key</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cookie操作</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>header操作</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>预期结果方式</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>预期结果</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>数据</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="189" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>智能家居</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>登陆</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>/user/login</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>{
- "userAccount":"8002",
- "userPassword":"e10adc3949ba59abbe56e057f20f883e"
-}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json"}</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>登陆成功</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
+    <row r="1" spans="1:14" customFormat="1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="189" customHeight="1">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1041,637 +1324,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="24"/>
-    <col customWidth="1" max="2" min="2" width="35"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">          userAccount                                                             </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>userPassword</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>736139</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>50e52e2073eef4b0b7d7c7724f6b7f20</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>630460</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1c9c01d41797d477ee30bafdc125768a</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="n">
         <v>244436</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>f9c0318cee6da973775db33757ef069f</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="n">
         <v>42889</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ee143800f8d1af75780c51d4c59c5426</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="n">
         <v>598110</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>78b8bee789db6eaa41842dcba85f9ff7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="n">
         <v>400281</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>a588a1d852544f4c918eb153932246cf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="n">
         <v>151001</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>a047a095710f46c941d771898c893eb5</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="n">
         <v>980442</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>f16af151fd2b0d07205c5bf1dba21214</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="n">
         <v>810380</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>899b7c59ce77e992ebf5c856c006d915</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="n">
         <v>762346</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>a8affc7b7a5766077495752392ba46dd</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="n">
         <v>788456</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>c4512986df4ae0cc0dfab52caf833190</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="n">
         <v>176230</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>fcd05787a1552f0e055cb118a21e9275</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="n">
         <v>680069</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7f85954c51ed3da63a4c600a8871b9ab</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="n">
         <v>309008</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>fc5be44365ee8b511d6f3af17f9b342a</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="n">
         <v>508345</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ffcc0c98e1e492760480170f7cf41412</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="n">
         <v>432259</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8dbbf1563ea52b17c5037730dd493d01</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="n">
         <v>522232</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>26975589b27d554601d367a4c78cdffb</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="n">
         <v>959837</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>f5c513fdd5ce92bf019c3e72d03c004f</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="n">
         <v>578785</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3589caff5c6dbb13f39e813b996af681</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="n">
         <v>360884</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>28cfe9078af97911b6d6c1648cde6163</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="n">
         <v>52115</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1b66e283bc5594c4253be6decd3ab509</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="n">
         <v>480709</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>54a072b63fddccba3692ea933b9471a2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="n">
         <v>621700</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>89f9b7896d979f01679ff757391e060b</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="n">
         <v>715814</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1e347fb302d0c42db49e2077aa46ebf2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="n">
         <v>901593</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>bf9312371bb405c735f82e178d8b9a14</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="n">
         <v>856532</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>4c865e2b29761f6600cf682d494b2a5d</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="n">
         <v>415522</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>fc988d6e273647b3daf92b684928667c</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="n">
         <v>152037</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>29bce12818b750dc4371525c4268e4da</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="n">
         <v>362221</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>f85ff2215ae2a17a5027de2e0e953a9b</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="n">
         <v>851691</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>fcee6f8dfd000f8cdf478f8a9774ec76</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="n">
         <v>22777</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>fba5afe50b98b170f01c9b6564460130</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="n">
         <v>604847</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>240ae90ef5084283b4b35664352d30c3</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="n">
         <v>124727</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>5b65721944aa6a92793024833b0a0bc4</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="n">
         <v>788804</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>b2245120cf9f0bc41b5c02cf540b1649</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="n">
         <v>618675</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>245d6c93670703839c1d9c1b09ab6b81</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="n">
         <v>852952</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3a3bbe17ff08d031e3fb66d3f29e9905</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="n">
         <v>711852</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>9b2c1ba7926e43ba836075d6e3401222</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="n">
         <v>251357</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>4ea16bea2feafa20c8f3d69cf77d3c00</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="n">
         <v>773409</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0ecd297b8ffb72128d53a2fe4dd0a707</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="n">
         <v>240531</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>b1645f276e4d915149b7311535a05cda</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>194907</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>329366</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>112234</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>490131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>853429</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>731354</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>803936</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>912711</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>745581</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>927780</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>504133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>595452</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>117819</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>704007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>60779</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>751933</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>635908</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>320782</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>634896</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>473396</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>610120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>416440</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>523485</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>558223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>331507</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>417380</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>36622</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>554230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>696485</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>589017</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>519857</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>591698</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>288350</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>167337</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>228572</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>517462</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>862780</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>59980</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1687,60 +2222,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25.875"/>
-    <col customWidth="1" max="2" min="2" width="20.625"/>
+    <col width="25.875" customWidth="1" min="1" max="1"/>
+    <col width="20.625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>userAccount</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>userPassword</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="n">
         <v>736243</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>d285f7fc5a4cda42cbb6864fae4b55cb</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="n">
         <v>362417</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>fdc53eef3bdbafb649301897457a8d05</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 注册成功</t>
-        </is>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1665,6 +1665,66 @@
         </is>
       </c>
       <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>258115</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>c54aeb6b84a6b83ea76ea18f4fb5841e</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>67683</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>b15b38a14f18b55480bb6d1b5115eb73</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35168</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7db8b2477c0538051d4c898756e727e0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50515</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>daaf78047dd53195e6604459a9a1d399</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
         </is>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>case编号</t>
   </si>
@@ -341,6 +341,63 @@
   </si>
   <si>
     <t>16a7ae461935919b85af78b626287a5f</t>
+  </si>
+  <si>
+    <t>6cdb4bf1dd34442f6b2a5f4532f91d1b</t>
+  </si>
+  <si>
+    <t>6c4c1dfa7be5b0e7ae13d20eff8b716f</t>
+  </si>
+  <si>
+    <t>9ca1e2c1b32b3ea93a23835927749bf9</t>
+  </si>
+  <si>
+    <t>365d95f5b3a058bbc0ca2003d30d721c</t>
+  </si>
+  <si>
+    <t>b9e43ead76582950854ba3ec73b1ef8e</t>
+  </si>
+  <si>
+    <t>8daa5b8480a4de7915d667ab23faae5c</t>
+  </si>
+  <si>
+    <t>5547c51d83a99a3ab7aed3023b602b98</t>
+  </si>
+  <si>
+    <t>dca56e3827ff08acbe83038826825811</t>
+  </si>
+  <si>
+    <t>748618eb9e5120956aa9f201484ccba0</t>
+  </si>
+  <si>
+    <t>b03dc487af4d94208f7e2214f8862aec</t>
+  </si>
+  <si>
+    <t>a4b9072a066c15d103f031ed17b59d3f</t>
+  </si>
+  <si>
+    <t>0e13e51599a5703a103929d56a2769c7</t>
+  </si>
+  <si>
+    <t>2ef0e53fffa479748d5ed87def214e6a</t>
+  </si>
+  <si>
+    <t>7e0f9a0a925f8bec87c15e60d67feb3b</t>
+  </si>
+  <si>
+    <t>a7446a35fc470c6a9bb1342dcd0dc65b</t>
+  </si>
+  <si>
+    <t>60d84206641531d2409a312289fdbc80</t>
+  </si>
+  <si>
+    <t>ffc8d4965d247dcd2c28ba3825b19b39</t>
+  </si>
+  <si>
+    <t>c42b2b8c66c4b5e7dc6bc0258b2d965f</t>
+  </si>
+  <si>
+    <t>1121faae99d0508a9fe75106cc9bda5f</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1324,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2203,6 +2260,215 @@
       </c>
       <c r="C79" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>140410</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>806617</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>770889</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>758182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>46385</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>923709</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>493124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>449463</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>734889</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>492097</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>347849</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>79046</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>48145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>533494</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>887877</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>64253</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>22705</v>
+      </c>
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>152442</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>428995</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2496,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2244,7 +2510,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2255,7 +2521,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>case编号</t>
   </si>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>1121faae99d0508a9fe75106cc9bda5f</t>
+  </si>
+  <si>
+    <t>8b19c222cccad4cb67c83e8ef76f3634</t>
+  </si>
+  <si>
+    <t>e420d04593affd5da3e9cac958d5fc86</t>
+  </si>
+  <si>
+    <t>16c5fb780821ae346589930bbe735140</t>
+  </si>
+  <si>
+    <t>5d1a4ede9ccc4b2d5eeadc5ec7cac8b6</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1381,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2468,6 +2480,50 @@
         <v>125</v>
       </c>
       <c r="C98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>37143</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>280141</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>743734</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>362791</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2496,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2510,7 +2566,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2521,7 +2577,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>case编号</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>5d1a4ede9ccc4b2d5eeadc5ec7cac8b6</t>
+  </si>
+  <si>
+    <t>f3e99ebcb6c4d98406cc9a298123e5ec</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1393,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2524,6 +2527,17 @@
         <v>129</v>
       </c>
       <c r="C102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>933346</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2552,7 +2566,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2566,7 +2580,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2577,7 +2591,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>case编号</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>f3e99ebcb6c4d98406cc9a298123e5ec</t>
+  </si>
+  <si>
+    <t>75a47e106379ff98183ba25110864eaa</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1396,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2538,6 +2541,17 @@
         <v>130</v>
       </c>
       <c r="C103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>360971</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2566,7 +2580,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2580,7 +2594,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2591,7 +2605,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>case编号</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>75a47e106379ff98183ba25110864eaa</t>
+  </si>
+  <si>
+    <t>afc7b68621a47ae991039c8d38b2aee1</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1399,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2552,6 +2555,17 @@
         <v>131</v>
       </c>
       <c r="C104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>67510</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2580,7 +2594,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2594,7 +2608,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2605,7 +2619,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>case编号</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>afc7b68621a47ae991039c8d38b2aee1</t>
+  </si>
+  <si>
+    <t>dec63f880cbdbd2c5150cc236a5a93e7</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1402,7 +1405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2566,6 +2569,17 @@
         <v>132</v>
       </c>
       <c r="C105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>442549</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2594,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2608,7 +2622,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2619,7 +2633,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>case编号</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>dec63f880cbdbd2c5150cc236a5a93e7</t>
+  </si>
+  <si>
+    <t>b2addf2714d5f0bd67abac91bf24d035</t>
+  </si>
+  <si>
+    <t>2c6a36f9aaedcbb314d416e4a11a8909</t>
+  </si>
+  <si>
+    <t>216fbdbe29310e9cd82e4b433ae128a6</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1405,7 +1414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2580,6 +2589,39 @@
         <v>133</v>
       </c>
       <c r="C106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>834919</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>313878</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>386224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2608,7 +2650,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2622,7 +2664,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2633,7 +2675,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>case编号</t>
   </si>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>216fbdbe29310e9cd82e4b433ae128a6</t>
+  </si>
+  <si>
+    <t>d8091711d0bdd7a8ed063bb689197ed9</t>
+  </si>
+  <si>
+    <t>1d51d55cd1308e3d6315e90e7d5aa912</t>
+  </si>
+  <si>
+    <t>4b50c7ec775ca7580240f984742fc67a</t>
+  </si>
+  <si>
+    <t>38dd5eea5cb52027658c016a951a0aa3</t>
   </si>
   <si>
     <t>userAccount</t>
@@ -1414,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2622,6 +2634,50 @@
         <v>136</v>
       </c>
       <c r="C109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>352868</v>
+      </c>
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>703770</v>
+      </c>
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>912313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>766838</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2650,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2664,7 +2720,7 @@
         <v>736243</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -2675,7 +2731,7 @@
         <v>362417</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -588,6 +588,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1041,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2775,6 +2843,81 @@
         </is>
       </c>
       <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>18324</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>31079a274b41e0c711bc97d65ca17b50</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>注册失败,请重新注册</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>826647</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ab75c43c0567eac3efe41dc36eca8f8b</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>306658</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>75c71a9e4777c9fea6f164d201ccae3c</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>322610</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2b788e0d67df3558e8f7276d5553d7bf</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>868915</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>64037aec212c0c936d18f3e646f608a7</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
         </is>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -1109,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2918,6 +2918,36 @@
         </is>
       </c>
       <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>427330</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>90f992330edc8fefbf7c1658238fcf1f</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>908578</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>c042b205af8961e623f0d9be4e4bb8c4</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve"> 注册成功</t>
         </is>

--- a/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
+++ b/UnittestCace/ENTITY/Util/Excle_case/case_01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mysheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="user" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,120 +474,120 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="3" fillId="7" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
+    <xf borderId="5" fillId="12" fontId="8" numFmtId="0"/>
+    <xf borderId="1" fillId="12" fontId="6" numFmtId="0"/>
+    <xf borderId="4" fillId="17" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -955,13 +955,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col width="13.125" customWidth="1" min="6" max="6"/>
-    <col width="59.5" customWidth="1" min="8" max="8"/>
-    <col width="33.25" customWidth="1" min="9" max="9"/>
-    <col width="37.625" customWidth="1" min="10" max="10"/>
+    <col customWidth="1" max="6" min="6" width="13.125"/>
+    <col customWidth="1" max="8" min="8" width="59.5"/>
+    <col customWidth="1" max="9" min="9" width="33.25"/>
+    <col customWidth="1" max="10" min="10" width="37.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row customFormat="1" r="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case编号</t>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="189" customHeight="1">
+    <row customHeight="1" ht="189" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>智能家居</t>
@@ -1099,7 +1099,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1109,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1117,8 +1117,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="24"/>
+    <col customWidth="1" max="2" min="2" width="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2953,8 +2953,23 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>542444</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>9845ebccb58e0337dc458d2d231d2739</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 注册成功</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2972,8 +2987,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col width="25.875" customWidth="1" min="1" max="1"/>
-    <col width="20.625" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="25.875"/>
+    <col customWidth="1" max="2" min="2" width="20.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3024,6 +3039,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>